--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8223</v>
+        <v>0.8244</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7702</v>
+        <v>0.8302</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7305</v>
+        <v>0.7341</v>
       </c>
     </row>
     <row r="15">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7442</v>
+        <v>0.7565</v>
       </c>
     </row>
     <row r="20">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.875</v>
+        <v>0.9494</v>
       </c>
     </row>
     <row r="22">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9574</v>
+        <v>0.9581</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9039</v>
+        <v>0.9306</v>
       </c>
     </row>
     <row r="32">
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9624</v>
+        <v>0.9762</v>
       </c>
     </row>
     <row r="43">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -1,37 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94311F6F-AA7D-472A-8A35-B3D45F59F3D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>2 Experts</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +71,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,527 +395,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2 Experts</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.9415</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.9046</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>0.90459999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8244</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>0.82440000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.9422</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>0.94220000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.9118000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.711</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.8923</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>0.89229999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.8381999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>0.83819999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.8302</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13">
+        <v>0.83020000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.7341</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>0.73409999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.7876</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15">
+        <v>0.78759999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.7225</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="C16">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.6828</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="C18">
+        <v>0.68279999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.7565</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="C19">
+        <v>0.75649999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.9711</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="C20">
+        <v>0.97109999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.9494</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="C21">
+        <v>0.94940000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.7753</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="C22">
+        <v>0.77529999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.9133</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.9263</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="C24">
+        <v>0.92630000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.9298999999999999</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="C25">
+        <v>0.92989999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.9581</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="C26">
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.8316</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="C27">
+        <v>0.83160000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.9444</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="C28">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.7673</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="C29">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.7282999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="C30">
+        <v>0.72829999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.9306</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="C31">
+        <v>0.93059999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.7695</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="C32">
+        <v>0.76949999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.9082</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="C33">
+        <v>0.90820000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.9681999999999999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="C34">
+        <v>0.96819999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.7847</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="C35">
+        <v>0.78469999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.7818000000000001</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="C36">
+        <v>0.78180000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.8584000000000001</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="C38">
+        <v>0.85840000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.9046</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="C39">
+        <v>0.90459999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.7688</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="C40">
+        <v>0.76880000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.914</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="C41">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.9762</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="C42">
+        <v>0.97619999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="C43">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.8909</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="C44">
+        <v>0.89090000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.5</v>
+      <c r="C46">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9415</v>
+        <v>0.9509</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8381999999999999</v>
+        <v>0.8569</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7341</v>
+        <v>0.7392</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7876</v>
+        <v>0.8071</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7225</v>
+        <v>0.7341</v>
       </c>
     </row>
     <row r="17">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6828</v>
+        <v>0.7818000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7565</v>
+        <v>0.7941</v>
       </c>
     </row>
     <row r="20">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9046</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7341</v>
+        <v>0.7383999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7941</v>
+        <v>0.8475</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9263</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9298999999999999</v>
+        <v>0.9386</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9581</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="27">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8316</v>
+        <v>0.9111</v>
       </c>
     </row>
     <row r="28">
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7673</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="30">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7847</v>
+        <v>0.7991</v>
       </c>
     </row>
     <row r="36">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7392</v>
+        <v>0.7413</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8071</v>
+        <v>0.8223</v>
       </c>
     </row>
     <row r="16">
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.802</v>
+        <v>0.8172</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7282999999999999</v>
+        <v>0.7999000000000001</v>
       </c>
     </row>
     <row r="31">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9306</v>
+        <v>0.9552</v>
       </c>
     </row>
     <row r="32">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7991</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9762</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="43">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8584000000000001</v>
+        <v>0.8714</v>
       </c>
     </row>
     <row r="39">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7413</v>
+        <v>0.7955</v>
       </c>
     </row>
     <row r="15">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9386</v>
+        <v>0.9552</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.974</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="27">
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.7955</v>
       </c>
     </row>
     <row r="37">
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8714</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="39">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7383999999999999</v>
+        <v>0.7486</v>
       </c>
     </row>
     <row r="17">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8475</v>
+        <v>0.9256</v>
       </c>
     </row>
     <row r="20">
@@ -673,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7753</v>
+        <v>0.7984</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9111</v>
+        <v>0.9241</v>
       </c>
     </row>
     <row r="28">
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9552</v>
+        <v>0.9566</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7695</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9082</v>
+        <v>0.9126</v>
       </c>
     </row>
     <row r="34">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="36">
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7688</v>
+        <v>0.8663</v>
       </c>
     </row>
     <row r="41">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244</v>
+        <v>0.8309</v>
       </c>
     </row>
     <row r="5">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7486</v>
+        <v>0.7507</v>
       </c>
     </row>
     <row r="17">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9494</v>
+        <v>0.9957</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7984</v>
+        <v>0.8468</v>
       </c>
     </row>
     <row r="23">
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="25">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9241</v>
+        <v>0.9314</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9444</v>
+        <v>0.9451000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8172</v>
+        <v>0.8598</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7999000000000001</v>
+        <v>0.8475</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9566</v>
+        <v>0.9574</v>
       </c>
     </row>
     <row r="32">
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9681999999999999</v>
+        <v>0.9747</v>
       </c>
     </row>
     <row r="35">
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.888</v>
+        <v>0.9118000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9046</v>
+        <v>0.9494</v>
       </c>
     </row>
     <row r="40">
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9877</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="43">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8223</v>
+        <v>0.8259</v>
       </c>
     </row>
     <row r="16">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9126</v>
+        <v>0.9393</v>
       </c>
     </row>
     <row r="34">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.823</v>
+        <v>0.8266</v>
       </c>
     </row>
     <row r="36">

--- a/3_experts_res/SEED/result.xlsx
+++ b/3_experts_res/SEED/result.xlsx
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.914</v>
+        <v>0.9147</v>
       </c>
     </row>
     <row r="4">
